--- a/data/evaluation/evaluation_Center_Summer_Eggplants.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Eggplants.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3941.705135219957</v>
+        <v>3968.920821494467</v>
       </c>
       <c r="C3" t="n">
-        <v>23879603.17647799</v>
+        <v>23974181.05883094</v>
       </c>
       <c r="D3" t="n">
-        <v>4886.67608671559</v>
+        <v>4896.343641824064</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.782164970173389</v>
+        <v>-0.7892234370849589</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3884.668323530003</v>
+        <v>3926.515068628899</v>
       </c>
       <c r="C4" t="n">
-        <v>20994945.50837991</v>
+        <v>21189733.49695555</v>
       </c>
       <c r="D4" t="n">
-        <v>4582.024171518513</v>
+        <v>4603.230767293288</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5668793220395705</v>
+        <v>-0.581416595849547</v>
       </c>
     </row>
     <row r="5">
